--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Đồ án 1\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD283E4-797B-4760-A764-053651C57F27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B99350-6087-4DCD-8213-8AA22433F791}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Thiết kế giao diện</t>
   </si>
   <si>
-    <t>Tạo backgourd, tạo các khung sườn</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Đề Tài : Game caro hai người chơi trên mạng LAN ( sử dụng stack để undo)</t>
+  </si>
+  <si>
+    <t>Tạo background, tạo các khung sườn</t>
   </si>
 </sst>
 </file>
@@ -153,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -284,10 +284,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -295,10 +295,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -348,6 +348,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,55 +405,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,31 +697,31 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="73.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+    <row r="1" spans="1:10" ht="25.8">
+      <c r="A1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -730,20 +730,20 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -757,177 +757,177 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14">
+      <c r="A3" s="29">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="D4" s="1"/>
+      <c r="E4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="15">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+        <v>9</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="26">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="19">
         <v>43741</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="20">
+        <v>43739</v>
+      </c>
+      <c r="G9" s="20">
+        <v>43376</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="25">
-        <v>43739</v>
-      </c>
-      <c r="G9" s="25">
-        <v>43376</v>
-      </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="25">
+      <c r="F10" s="20">
         <v>43377</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="20">
         <v>43746</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
@@ -935,219 +935,221 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="25">
+        <v>9</v>
+      </c>
+      <c r="F11" s="20">
         <v>43747</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="20">
         <v>43751</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="31">
+        <v>5</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="17">
+        <v>43752</v>
+      </c>
+      <c r="G12" s="20">
+        <v>43756</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="32"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="D13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="20">
         <v>43752</v>
       </c>
-      <c r="G12" s="25">
-        <v>43756</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="25">
-        <v>43752</v>
-      </c>
-      <c r="G13" s="25">
+      <c r="G13" s="20">
         <v>43757</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="20">
+        <v>43755</v>
+      </c>
+      <c r="G14" s="20">
+        <v>43758</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="25">
-        <v>43755</v>
-      </c>
-      <c r="G14" s="25">
-        <v>43758</v>
-      </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>26</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="25">
+        <v>9</v>
+      </c>
+      <c r="F15" s="20">
         <v>43756</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="20">
         <v>43760</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>10</v>
+      <c r="A16" s="25"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="25">
+      <c r="F16" s="20">
         <v>43758</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="17">
         <v>43760</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="17"/>
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="25">
+        <v>9</v>
+      </c>
+      <c r="F17" s="20">
         <v>43760</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="20">
         <v>43761</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="28">
+        <v>9</v>
+      </c>
+      <c r="F18" s="21">
         <v>43762</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="21">
         <v>43764</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>39</v>
+        <v>23</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="28">
+        <v>9</v>
+      </c>
+      <c r="F19" s="21">
         <v>43763</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="21">
         <v>43765</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
@@ -1159,6 +1161,8 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD283E4-797B-4760-A764-053651C57F27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A858661-35A6-4B70-BA48-55B22D5ECFDF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,7 +145,7 @@
     <t>File word</t>
   </si>
   <si>
-    <t>Đề Tài : Game caro hai người chơi trên mạng LAN ( sử dụng stack để undo)</t>
+    <t>Đề Tài đồ án 1: Game caro hai người chơi trên mạng LAN ( sử dụng stack để undo)</t>
   </si>
 </sst>
 </file>
@@ -153,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -208,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -305,13 +305,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +370,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -360,55 +433,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +725,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -713,15 +741,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -730,10 +758,10 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -757,54 +785,54 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="14">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="E4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
@@ -812,21 +840,21 @@
         <v>10</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="15">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -836,19 +864,19 @@
         <v>10</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
@@ -856,21 +884,21 @@
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="14">
+      <c r="A8" s="31">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -880,39 +908,39 @@
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="16">
         <v>43741</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="25">
+      <c r="E9" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="15">
         <v>43739</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="15">
         <v>43376</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
@@ -920,14 +948,14 @@
         <v>10</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="25">
+      <c r="F10" s="15">
         <v>43377</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="15">
         <v>43746</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
@@ -940,69 +968,71 @@
       <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="15">
         <v>43747</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="15">
         <v>43751</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="11"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="33">
+        <v>5</v>
+      </c>
+      <c r="B12" s="24" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="27">
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="17">
         <v>43752</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="15">
         <v>43756</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="11"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="25">
+      <c r="F13" s="15">
         <v>43752</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="15">
         <v>43757</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>21</v>
@@ -1016,21 +1046,21 @@
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="15">
         <v>43755</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="15">
         <v>43758</v>
       </c>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="24">
+        <v>7</v>
+      </c>
+      <c r="B15" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1040,68 +1070,68 @@
       <c r="E15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="15">
         <v>43756</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="15">
         <v>43760</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="11"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="F16" s="25">
+      <c r="F16" s="15">
         <v>43758</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="17">
         <v>43760</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
-        <v>7</v>
-      </c>
-      <c r="B17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="15">
         <v>43760</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="15">
         <v>43761</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
@@ -1110,24 +1140,24 @@
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="18">
         <v>43762</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="18">
         <v>43764</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
       <c r="J18" s="8"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1136,18 +1166,18 @@
       <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="18">
         <v>43763</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="18">
         <v>43765</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
       <c r="J19" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B15:B16"/>
@@ -1159,6 +1189,8 @@
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Đồ án 1\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B99350-6087-4DCD-8213-8AA22433F791}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30ED1F9-7F29-4D5C-AFD0-7D0C8A1BB206}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,10 +142,10 @@
     <t>File word</t>
   </si>
   <si>
-    <t>Đề Tài : Game caro hai người chơi trên mạng LAN ( sử dụng stack để undo)</t>
-  </si>
-  <si>
     <t>Tạo background, tạo các khung sườn</t>
+  </si>
+  <si>
+    <t>Đề Tài : Game caro hai người chơi trên mạng LAN (sử dụng stack để undo)</t>
   </si>
 </sst>
 </file>
@@ -390,6 +390,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -397,9 +400,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -696,8 +696,8 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -713,15 +713,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.8">
-      <c r="A1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
+      <c r="A1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -730,10 +730,10 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -757,14 +757,14 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="29">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>9</v>
@@ -783,8 +783,8 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -803,8 +803,8 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -826,7 +826,7 @@
       <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="26" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -848,7 +848,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -867,10 +867,10 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="29">
+      <c r="A8" s="26">
         <v>3</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -891,8 +891,8 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -911,8 +911,8 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
       <c r="A15" s="24">
         <v>7</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="26" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1054,7 +1054,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="25"/>
-      <c r="B16" s="29"/>
+      <c r="B16" s="26"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>

--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Đồ án 1\doan1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30ED1F9-7F29-4D5C-AFD0-7D0C8A1BB206}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6EFA3-C8A4-4D17-92FA-AAEEA4C970D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>Đề Tài : Game caro hai người chơi trên mạng LAN (sử dụng stack để undo)</t>
+  </si>
+  <si>
+    <t>29/9</t>
   </si>
 </sst>
 </file>
@@ -697,22 +700,22 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="64.77734375" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25.8">
+    <row r="1" spans="1:10" ht="26.25">
       <c r="A1" s="27" t="s">
         <v>41</v>
       </c>
@@ -778,8 +781,12 @@
       <c r="G3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+      <c r="H3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
@@ -798,8 +805,12 @@
       <c r="G4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="H4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
@@ -818,8 +829,12 @@
       <c r="G5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
@@ -842,8 +857,12 @@
       <c r="G6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
@@ -862,8 +881,12 @@
       <c r="G7" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
@@ -886,8 +909,12 @@
       <c r="G8" s="19">
         <v>43741</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
@@ -906,8 +933,12 @@
       <c r="G9" s="20">
         <v>43376</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
@@ -926,8 +957,12 @@
       <c r="G10" s="20">
         <v>43746</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10">
@@ -952,7 +987,9 @@
       <c r="G11" s="20">
         <v>43751</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="I11" s="13"/>
       <c r="J11" s="4"/>
     </row>

--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\doan1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Đồ án 1\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B6EFA3-C8A4-4D17-92FA-AAEEA4C970D3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6D910-338C-4C04-8923-00C1AC0C3877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -159,12 +159,19 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd/mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -314,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -351,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,16 +367,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -396,13 +403,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -413,6 +420,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -700,22 +713,22 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="64.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="26.25">
+    <row r="1" spans="1:10" ht="25.8">
       <c r="A1" s="27" t="s">
         <v>41</v>
       </c>
@@ -990,7 +1003,9 @@
       <c r="H11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="33">
+        <v>43740</v>
+      </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
@@ -1015,7 +1030,9 @@
       <c r="G12" s="20">
         <v>43756</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="34" t="s">
+        <v>35</v>
+      </c>
       <c r="I12" s="13"/>
       <c r="J12" s="4"/>
     </row>
@@ -1061,8 +1078,12 @@
       <c r="G14" s="20">
         <v>43758</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
+      <c r="H14" s="33">
+        <v>43740</v>
+      </c>
+      <c r="I14" s="33">
+        <v>43742</v>
+      </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
@@ -1085,8 +1106,12 @@
       <c r="G15" s="20">
         <v>43760</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="H15" s="33">
+        <v>43740</v>
+      </c>
+      <c r="I15" s="33">
+        <v>43742</v>
+      </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">

--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Đồ án 1\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E6D910-338C-4C04-8923-00C1AC0C3877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7540240C-5681-4777-8E30-ACAD25BFF520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd/mm"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -361,32 +360,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -420,12 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -713,7 +712,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -729,15 +728,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25.8">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
@@ -746,10 +745,10 @@
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
+      <c r="C2" s="31"/>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
@@ -773,10 +772,10 @@
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="26">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -803,8 +802,8 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -827,8 +826,8 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
@@ -851,10 +850,10 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="30">
+      <c r="A6" s="32">
         <v>2</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="28" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -879,8 +878,8 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="30"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
@@ -903,10 +902,10 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="26">
+      <c r="A8" s="28">
         <v>3</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -931,8 +930,8 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
@@ -955,8 +954,8 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1003,16 +1002,16 @@
       <c r="H11" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="33">
+      <c r="I11" s="22">
         <v>43740</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="31">
+      <c r="A12" s="33">
         <v>5</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1030,15 +1029,17 @@
       <c r="G12" s="20">
         <v>43756</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="H12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="22">
+        <v>43748</v>
+      </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="32"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
@@ -1078,19 +1079,19 @@
       <c r="G14" s="20">
         <v>43758</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="22">
         <v>43740</v>
       </c>
-      <c r="I14" s="33">
+      <c r="I14" s="22">
         <v>43742</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24">
+      <c r="A15" s="26">
         <v>7</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1106,17 +1107,17 @@
       <c r="G15" s="20">
         <v>43760</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="22">
         <v>43740</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="22">
         <v>43742</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1138,10 +1139,10 @@
       <c r="A17" s="1">
         <v>8</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>

--- a/bảng kế hoạch.xlsx
+++ b/bảng kế hoạch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying\Năm 3\Đồ án 1\doan1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7540240C-5681-4777-8E30-ACAD25BFF520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DC0C8-2513-473B-8858-601722F6D7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,7 +712,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1053,8 +1053,12 @@
       <c r="G13" s="20">
         <v>43757</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="H13" s="22">
+        <v>43749</v>
+      </c>
+      <c r="I13" s="22">
+        <v>43757</v>
+      </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10">
